--- a/biology/Botanique/Maurice_de_Vilmorin/Maurice_de_Vilmorin.xlsx
+++ b/biology/Botanique/Maurice_de_Vilmorin/Maurice_de_Vilmorin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auguste Louis Maurice Lévêque de Vilmorin, né à Verrières-le-Buisson le 26 février 1849 et mort à Nogent-sur-Vernisson le 21 avril 1918[1], est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auguste Louis Maurice Lévêque de Vilmorin, né à Verrières-le-Buisson le 26 février 1849 et mort à Nogent-sur-Vernisson le 21 avril 1918, est un botaniste français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Louis de Vilmorin et le frère de Henry de Vilmorin.
-Il est président de la Société libre d'agriculture, sciences, arts et belles-lettres de l'Eure en 1902, de la Société botanique de France en 1911, de l'Académie d'agriculture de France en 1916[réf. nécessaire] et de la Société nationale d'acclimatation de France[2].
+Il est président de la Société libre d'agriculture, sciences, arts et belles-lettres de l'Eure en 1902, de la Société botanique de France en 1911, de l'Académie d'agriculture de France en 1916[réf. nécessaire] et de la Société nationale d'acclimatation de France.
 </t>
         </is>
       </c>
